--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -10470,8 +10470,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -10480,8 +10480,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -37776,118 +37776,118 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -37776,28 +37776,28 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37811,17 +37811,17 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
@@ -37831,59 +37831,59 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -37791,18 +37791,18 @@
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37811,14 +37811,14 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
@@ -37826,64 +37826,64 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
+  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -37776,7 +37776,7 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
@@ -37786,12 +37786,12 @@
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
@@ -37806,22 +37806,22 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
@@ -37831,24 +37831,24 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
@@ -37866,24 +37866,24 @@
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -42786,8 +42786,8 @@
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42796,87 +42796,87 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -42773,112 +42773,112 @@
   </sheetData>
   <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -42771,13 +42771,13 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42786,48 +42786,48 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
+  <conditionalFormatting sqref="M1:M1000">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1000">
     <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42836,9 +42836,9 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
@@ -42848,7 +42848,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
@@ -42856,27 +42856,27 @@
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -15465,8 +15465,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -15475,8 +15475,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -42771,118 +42771,118 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="N1:N1000">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -42776,7 +42776,7 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
@@ -42786,12 +42786,12 @@
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
@@ -42801,57 +42801,57 @@
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
+  <conditionalFormatting sqref="V1:V1000">
     <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1000">
     <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
@@ -42861,24 +42861,24 @@
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="O1:O1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="U1:U1000">
     <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -15465,8 +15465,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEAF7F9"/>
-          <bgColor rgb="FFEAF7F9"/>
+          <fgColor rgb="FFFFFFE5"/>
+          <bgColor rgb="FFFFFFE5"/>
         </patternFill>
       </fill>
       <border/>
@@ -15475,8 +15475,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFE5"/>
-          <bgColor rgb="FFFFFFE5"/>
+          <fgColor rgb="FFEAF7F9"/>
+          <bgColor rgb="FFEAF7F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -42771,118 +42771,118 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1000">
+  <conditionalFormatting sqref="N1:N1000">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1000">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>$I1 = "cell suspension"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>$H1 = "suction blister cells"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
-      <formula>$H1 = "suction blister cells"</formula>
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
       <formula>$H1 = "suction blister fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="P1:P1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1000">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
-      <formula>$H1 = "synovial fluid"</formula>
+  <conditionalFormatting sqref="S1:S1000">
+    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
-    <cfRule type="expression" dxfId="1" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="23" stopIfTrue="1">
       <formula>$B1 = "AMP RA/SLE"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
+++ b/model_templates/ark.OlinkBiospecimenMetadataTemplate.xlsx
@@ -42771,114 +42771,114 @@
       <c r="Y1000" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1000">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$I1 = "cell suspension"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1000">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="K1:K1000">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I1 = "flow-sorted cells"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$I1 = "flow-sorted cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1000">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1000">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
-      <formula>$I1 = "cell suspension"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
+  <conditionalFormatting sqref="T1:T1000">
     <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>$H1 = "suction blister cells"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
+  <conditionalFormatting sqref="S1:S1000">
     <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
-      <formula>$H1 = "skin biopsy"</formula>
+      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+      <formula>$H1 = "suction blister fluid"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1000">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+      <formula>$H1 = "skin biopsy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1000">
+    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
       <formula>$H1 = "skin biopsy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
       <formula>$H1 = "synovial fluid"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T1000">
-    <cfRule type="expression" dxfId="1" priority="14" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
+  <conditionalFormatting sqref="R1:R1000">
+    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
-      <formula>$H1 = "suction blister fluid"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1000">
-    <cfRule type="expression" dxfId="1" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="18" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1000">
-    <cfRule type="expression" dxfId="0" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
+      <formula>$H1 = "synovial tissue"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1000">
+    <cfRule type="expression" dxfId="1" priority="20" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1000">
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1000">
-    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
-      <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1000">
-    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1000">
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
       <formula>$H1 = "synovial tissue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1000">
-    <cfRule type="expression" dxfId="1" priority="22" stopIfTrue="1">
-      <formula>$H1 = "saliva"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1000">
